--- a/SCBAA/2018/Region 2.xlsx
+++ b/SCBAA/2018/Region 2.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4EC764-658D-4C05-8A17-A18EDBD2C561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F92FBD-70C4-4265-A8A0-623A2B41950D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16125" yWindow="1305" windowWidth="9150" windowHeight="12495" firstSheet="2" activeTab="3" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="11490" yWindow="1320" windowWidth="14625" windowHeight="13170" firstSheet="2" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Cauayan" sheetId="1" r:id="rId1"/>
     <sheet name="Santiago" sheetId="2" r:id="rId2"/>
-    <sheet name="Iligan" sheetId="3" r:id="rId3"/>
+    <sheet name="Ilagan" sheetId="3" r:id="rId3"/>
     <sheet name="Tuguegarao" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -498,18 +505,6 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
@@ -529,6 +524,18 @@
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -869,54 +876,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -930,22 +937,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="33"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1056,7 +1063,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="32">
         <v>283653.40000000002</v>
       </c>
     </row>
@@ -1088,7 +1095,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="37">
+      <c r="E21" s="33">
         <v>651345736</v>
       </c>
     </row>
@@ -1152,7 +1159,7 @@
       <c r="D27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="33">
         <v>4744474</v>
       </c>
     </row>
@@ -1172,7 +1179,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="32">
         <v>2973300</v>
       </c>
     </row>
@@ -1304,7 +1311,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="33">
         <v>231727613.31</v>
       </c>
     </row>
@@ -1315,7 +1322,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="33">
         <v>273148952.79000002</v>
       </c>
     </row>
@@ -1326,7 +1333,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="37">
+      <c r="E44" s="33">
         <v>22429660.210000001</v>
       </c>
     </row>
@@ -1388,7 +1395,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="33">
         <v>32963712.91</v>
       </c>
     </row>
@@ -1399,7 +1406,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="33">
         <v>8605501.8200000003</v>
       </c>
     </row>
@@ -1410,7 +1417,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="33">
         <v>0</v>
       </c>
     </row>
@@ -1472,7 +1479,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E58" s="33">
         <v>4586664.29</v>
       </c>
     </row>
@@ -1483,7 +1490,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E59" s="33">
         <v>16794339.140000001</v>
       </c>
     </row>
@@ -1494,7 +1501,7 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="37">
+      <c r="E60" s="33">
         <v>0</v>
       </c>
     </row>
@@ -1514,7 +1521,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="37">
+      <c r="E62" s="33">
         <v>6929690.0999999996</v>
       </c>
     </row>
@@ -1525,7 +1532,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="37">
+      <c r="E63" s="33">
         <v>1210873.97</v>
       </c>
     </row>
@@ -1536,7 +1543,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="33">
         <v>0</v>
       </c>
     </row>
@@ -1556,7 +1563,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="37">
+      <c r="E66" s="33">
         <v>36524532.979999997</v>
       </c>
     </row>
@@ -1567,7 +1574,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="37">
+      <c r="E67" s="33">
         <v>125294187.62</v>
       </c>
     </row>
@@ -1578,7 +1585,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="33">
         <v>19202590.649999999</v>
       </c>
     </row>
@@ -1598,7 +1605,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="37">
+      <c r="E70" s="33">
         <v>0</v>
       </c>
     </row>
@@ -1609,7 +1616,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="37">
+      <c r="E71" s="33">
         <v>33738043.479999997</v>
       </c>
     </row>
@@ -1620,7 +1627,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="37">
+      <c r="E72" s="33">
         <v>1315749.55</v>
       </c>
     </row>
@@ -1867,7 +1874,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="37">
+      <c r="E96" s="33">
         <v>10600074.369999999</v>
       </c>
       <c r="F96" s="10"/>
@@ -1911,7 +1918,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="37">
+      <c r="E100" s="33">
         <v>162404625.78999999</v>
       </c>
     </row>
@@ -1983,7 +1990,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="37">
+      <c r="E108" s="33">
         <v>15149727.810000001</v>
       </c>
     </row>
@@ -2056,54 +2063,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2117,22 +2124,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="33"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2167,7 +2174,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="34">
         <v>31608303.530000001</v>
       </c>
     </row>
@@ -2178,7 +2185,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="34">
         <v>140848041.65000001</v>
       </c>
     </row>
@@ -2189,7 +2196,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2221,7 +2228,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="34">
         <v>24238730.559999999</v>
       </c>
     </row>
@@ -2232,7 +2239,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="34">
         <v>48687562.300000004</v>
       </c>
     </row>
@@ -2243,7 +2250,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="34">
         <v>2168620.94</v>
       </c>
     </row>
@@ -2275,7 +2282,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="38">
+      <c r="E21" s="34">
         <v>1330896021.6800001</v>
       </c>
     </row>
@@ -2339,7 +2346,7 @@
       <c r="D27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="35">
         <v>0</v>
       </c>
     </row>
@@ -2359,7 +2366,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="35">
         <v>0</v>
       </c>
     </row>
@@ -2491,7 +2498,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="34">
         <v>257844451.08000001</v>
       </c>
     </row>
@@ -2502,7 +2509,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="34">
         <v>414442858.26999998</v>
       </c>
     </row>
@@ -2513,7 +2520,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="34">
         <v>23536796.629999999</v>
       </c>
     </row>
@@ -2524,7 +2531,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="38"/>
+      <c r="E45" s="34"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -2533,7 +2540,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2544,7 +2551,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2555,7 +2562,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2573,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="38"/>
+      <c r="E49" s="34"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -2575,7 +2582,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50" s="34">
         <v>34013337.950000003</v>
       </c>
     </row>
@@ -2586,7 +2593,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="34">
         <v>91183526.819999993</v>
       </c>
     </row>
@@ -2597,7 +2604,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52" s="34">
         <v>1269883.67</v>
       </c>
     </row>
@@ -2608,7 +2615,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="38"/>
+      <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -2617,7 +2624,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2628,7 +2635,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2639,7 +2646,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2650,7 +2657,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="38"/>
+      <c r="E57" s="34"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -2659,7 +2666,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2677,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2681,7 +2688,7 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="38">
+      <c r="E60" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2692,7 +2699,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="38"/>
+      <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -2701,7 +2708,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="38">
+      <c r="E62" s="34">
         <v>19395850.260000002</v>
       </c>
     </row>
@@ -2712,7 +2719,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="38">
+      <c r="E63" s="34">
         <v>74945571.030000001</v>
       </c>
     </row>
@@ -2723,7 +2730,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E64" s="34">
         <v>1436470</v>
       </c>
     </row>
@@ -2734,7 +2741,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="38"/>
+      <c r="E65" s="34"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -2743,7 +2750,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="38">
+      <c r="E66" s="34">
         <v>112301653.5</v>
       </c>
     </row>
@@ -2754,7 +2761,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E67" s="34">
         <v>65539701.439999998</v>
       </c>
     </row>
@@ -2765,7 +2772,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E68" s="34">
         <v>6046898.3399999999</v>
       </c>
     </row>
@@ -2786,7 +2793,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="35">
         <v>0</v>
       </c>
       <c r="F70" s="31"/>
@@ -2798,7 +2805,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="39">
+      <c r="E71" s="35">
         <v>0</v>
       </c>
       <c r="F71" s="31"/>
@@ -2810,7 +2817,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="35">
         <v>0</v>
       </c>
       <c r="F72" s="31"/>
@@ -2872,7 +2879,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="38">
+      <c r="E78" s="34">
         <v>93783800</v>
       </c>
     </row>
@@ -2883,7 +2890,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="38">
+      <c r="E79" s="34">
         <v>5463420</v>
       </c>
     </row>
@@ -2903,7 +2910,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="34">
         <v>305712623.91000003</v>
       </c>
     </row>
@@ -2914,7 +2921,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="38">
+      <c r="E82" s="34">
         <v>23156024.800000001</v>
       </c>
     </row>
@@ -2996,7 +3003,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="38">
+      <c r="E90" s="34">
         <v>37000</v>
       </c>
     </row>
@@ -3059,7 +3066,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="38">
+      <c r="E96" s="34">
         <v>5909233.6399999997</v>
       </c>
       <c r="F96" s="10"/>
@@ -3103,7 +3110,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="38">
+      <c r="E100" s="34">
         <v>1882008.4</v>
       </c>
     </row>
@@ -3157,7 +3164,7 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="38">
+      <c r="E106" s="34">
         <v>315204.40000000002</v>
       </c>
     </row>
@@ -3175,7 +3182,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="38">
+      <c r="E108" s="34">
         <v>8029428.0999999996</v>
       </c>
     </row>
@@ -3233,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BCC263-8657-4306-917E-3861B2447A22}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3247,54 +3254,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3308,22 +3315,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="33"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -3358,7 +3365,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="36">
         <v>6846795.4900000002</v>
       </c>
     </row>
@@ -3369,7 +3376,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="36">
         <v>43386745.109999999</v>
       </c>
     </row>
@@ -3380,7 +3387,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="36">
         <v>2891474.39</v>
       </c>
     </row>
@@ -3412,7 +3419,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="36">
         <v>26791718.120000001</v>
       </c>
     </row>
@@ -3423,7 +3430,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="36">
         <v>63371828.810000002</v>
       </c>
     </row>
@@ -3434,7 +3441,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="36">
         <v>2867427.59</v>
       </c>
     </row>
@@ -3466,7 +3473,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="40">
+      <c r="E21" s="36">
         <v>1304961369</v>
       </c>
     </row>
@@ -3530,7 +3537,7 @@
       <c r="D27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="36">
         <v>146679110</v>
       </c>
     </row>
@@ -3550,7 +3557,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="35">
         <v>0</v>
       </c>
     </row>
@@ -3561,7 +3568,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="36">
         <v>1986501.05</v>
       </c>
     </row>
@@ -3682,7 +3689,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="36">
         <v>171275659.09</v>
       </c>
     </row>
@@ -3693,7 +3700,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="36">
         <v>446649956.47000003</v>
       </c>
     </row>
@@ -3704,7 +3711,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="36">
         <v>17204578.670000002</v>
       </c>
     </row>
@@ -3715,7 +3722,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="40"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -3724,7 +3731,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3735,7 +3742,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="36">
         <v>52848348.049999997</v>
       </c>
     </row>
@@ -3746,7 +3753,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3757,7 +3764,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="40"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -3766,7 +3773,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="36">
         <v>62634220.350000001</v>
       </c>
     </row>
@@ -3777,7 +3784,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="36">
         <v>40290416.700000003</v>
       </c>
     </row>
@@ -3788,7 +3795,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3799,7 +3806,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="40"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -3808,7 +3815,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3819,7 +3826,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="40">
+      <c r="E55" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3830,7 +3837,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E56" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3841,7 +3848,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="40"/>
+      <c r="E57" s="36"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -3850,7 +3857,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E58" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3861,7 +3868,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3872,7 +3879,7 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="40">
+      <c r="E60" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3883,7 +3890,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="40"/>
+      <c r="E61" s="36"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -3892,7 +3899,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="40">
+      <c r="E62" s="36">
         <v>13185152.439999999</v>
       </c>
     </row>
@@ -3903,7 +3910,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="40">
+      <c r="E63" s="36">
         <v>62516285.609999999</v>
       </c>
     </row>
@@ -3914,7 +3921,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3925,7 +3932,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="40"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -3934,7 +3941,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="40">
+      <c r="E66" s="36">
         <v>59361574.289999999</v>
       </c>
     </row>
@@ -3945,7 +3952,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="36">
         <v>138562575.31</v>
       </c>
     </row>
@@ -3956,7 +3963,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="36">
         <v>75445</v>
       </c>
     </row>
@@ -3977,7 +3984,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="35">
         <v>0</v>
       </c>
       <c r="F70" s="31"/>
@@ -3989,7 +3996,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="39">
+      <c r="E71" s="35">
         <v>0</v>
       </c>
       <c r="F71" s="31"/>
@@ -4001,7 +4008,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="35">
         <v>0</v>
       </c>
       <c r="F72" s="31"/>
@@ -4063,7 +4070,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="36">
         <v>29780536.93</v>
       </c>
     </row>
@@ -4074,7 +4081,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E79" s="36">
         <v>30144500</v>
       </c>
     </row>
@@ -4094,7 +4101,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4105,7 +4112,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="36">
         <v>269580562.23000002</v>
       </c>
     </row>
@@ -4156,7 +4163,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="36">
         <v>19785286.890000001</v>
       </c>
     </row>
@@ -4187,7 +4194,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="38">
+      <c r="E90" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4198,7 +4205,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="36">
         <v>125649452.17</v>
       </c>
     </row>
@@ -4250,7 +4257,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="40">
+      <c r="E96" s="36">
         <v>387505.88</v>
       </c>
       <c r="F96" s="10"/>
@@ -4294,7 +4301,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="38">
+      <c r="E100" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4348,7 +4355,7 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="40">
+      <c r="E106" s="36">
         <v>38317800.710000001</v>
       </c>
     </row>
@@ -4366,7 +4373,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="38">
+      <c r="E108" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4424,7 +4431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AE3211-34A1-4A75-9C17-C4517D5C5FE2}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4438,54 +4445,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4499,22 +4506,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="33"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -4549,7 +4556,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="37">
         <v>34292622.669999994</v>
       </c>
     </row>
@@ -4560,7 +4567,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="38">
         <v>158042900.63999999</v>
       </c>
     </row>
@@ -4571,7 +4578,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="37">
         <f>10102922.33+2793867+4602895.49</f>
         <v>17499684.82</v>
       </c>
@@ -4604,7 +4611,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="39">
         <v>36082495.340000004</v>
       </c>
     </row>
@@ -4615,7 +4622,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="37">
         <v>121476909.06999999</v>
       </c>
     </row>
@@ -4626,7 +4633,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="38">
         <v>1763242.1</v>
       </c>
     </row>
@@ -4658,7 +4665,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="44">
+      <c r="E21" s="40">
         <v>541233584</v>
       </c>
     </row>
@@ -4669,7 +4676,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="44">
+      <c r="E22" s="40">
         <v>2453098.6800000002</v>
       </c>
     </row>
@@ -4722,7 +4729,7 @@
       <c r="D27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4742,7 +4749,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4753,7 +4760,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="36">
         <f>149544189+27000000+304280414.5</f>
         <v>480824603.5</v>
       </c>
@@ -4807,7 +4814,7 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="40">
         <f>45000000+19920000</f>
         <v>64920000</v>
       </c>
@@ -4876,7 +4883,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="37">
         <f>185124970.06</f>
         <v>185124970.06</v>
       </c>
@@ -4888,7 +4895,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="37">
         <f>248335309.15+63562170.59</f>
         <v>311897479.74000001</v>
       </c>
@@ -4900,7 +4907,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="37">
         <f>142910698.75</f>
         <v>142910698.75</v>
       </c>
@@ -4912,7 +4919,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="40"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -4921,7 +4928,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4932,7 +4939,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4943,7 +4950,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4954,7 +4961,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="40"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -4963,7 +4970,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="37">
         <v>65138827.640000001</v>
       </c>
     </row>
@@ -4974,7 +4981,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="41">
+      <c r="E51" s="37">
         <v>24595286.559999999</v>
       </c>
     </row>
@@ -4985,7 +4992,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="37">
         <v>241200</v>
       </c>
     </row>
@@ -4996,7 +5003,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="40"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -5005,7 +5012,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5016,7 +5023,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="40">
+      <c r="E55" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5027,7 +5034,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E56" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5038,7 +5045,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="40"/>
+      <c r="E57" s="36"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -5047,7 +5054,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E58" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5058,7 +5065,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5069,7 +5076,7 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="40">
+      <c r="E60" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5080,7 +5087,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="40"/>
+      <c r="E61" s="36"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -5089,7 +5096,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="41">
+      <c r="E62" s="37">
         <v>4886472.68</v>
       </c>
     </row>
@@ -5100,7 +5107,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="41">
+      <c r="E63" s="37">
         <v>614636.6</v>
       </c>
     </row>
@@ -5111,7 +5118,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="37">
         <f>1395393.8-1295893.8</f>
         <v>99500</v>
       </c>
@@ -5123,7 +5130,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="40"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -5132,7 +5139,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="37">
         <v>34382831.829999998</v>
       </c>
     </row>
@@ -5143,7 +5150,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="41">
+      <c r="E67" s="37">
         <v>13555547.23</v>
       </c>
     </row>
@@ -5154,7 +5161,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="41">
+      <c r="E68" s="37">
         <v>1182498</v>
       </c>
     </row>
@@ -5175,7 +5182,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="35">
         <v>0</v>
       </c>
       <c r="F70" s="31"/>
@@ -5187,7 +5194,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="39">
+      <c r="E71" s="35">
         <v>0</v>
       </c>
       <c r="F71" s="31"/>
@@ -5199,7 +5206,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="35">
         <v>0</v>
       </c>
       <c r="F72" s="31"/>
@@ -5261,7 +5268,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="45">
+      <c r="E78" s="41">
         <f>39073816.8-E79</f>
         <v>27864241.249999985</v>
       </c>
@@ -5273,7 +5280,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="41">
+      <c r="E79" s="37">
         <v>11209575.550000012</v>
       </c>
     </row>
@@ -5293,7 +5300,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="41">
+      <c r="E81" s="37">
         <f>4348583+4194468</f>
         <v>8543051</v>
       </c>
@@ -5305,7 +5312,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="41">
+      <c r="E82" s="37">
         <f>95384759.42-E81</f>
         <v>86841708.420000002</v>
       </c>
@@ -5357,7 +5364,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5388,7 +5395,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="38">
+      <c r="E90" s="34">
         <v>0</v>
       </c>
     </row>
@@ -5399,7 +5406,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="42">
+      <c r="E91" s="38">
         <v>20970576.5</v>
       </c>
     </row>
@@ -5451,7 +5458,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="40">
+      <c r="E96" s="36">
         <f>1111354.96+36645490.06</f>
         <v>37756845.020000003</v>
       </c>
@@ -5496,7 +5503,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="46">
+      <c r="E100" s="42">
         <v>699510.85</v>
       </c>
     </row>
@@ -5550,7 +5557,7 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="40">
+      <c r="E106" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5568,7 +5575,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="42">
         <v>554923</v>
       </c>
     </row>
@@ -5587,7 +5594,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="41">
+      <c r="E110" s="37">
         <f>35220992.06+60721299.04+10689883.8</f>
         <v>106632174.89999999</v>
       </c>

--- a/SCBAA/2018/Region 2.xlsx
+++ b/SCBAA/2018/Region 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F92FBD-70C4-4265-A8A0-623A2B41950D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9491E9-63F4-4321-A78A-99DF4A69FC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="1320" windowWidth="14625" windowHeight="13170" firstSheet="2" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="2" activeTab="3" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Cauayan" sheetId="1" r:id="rId1"/>
@@ -3240,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BCC263-8657-4306-917E-3861B2447A22}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4431,8 +4431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AE3211-34A1-4A75-9C17-C4517D5C5FE2}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4579,7 +4579,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="37">
-        <f>10102922.33+2793867+4602895.49</f>
         <v>17499684.82</v>
       </c>
     </row>
@@ -4591,7 +4590,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="18">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>209835208.12999997</v>
       </c>
     </row>
@@ -4645,7 +4643,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="18">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>159322646.50999999</v>
       </c>
     </row>
@@ -4761,7 +4758,6 @@
         <v>39</v>
       </c>
       <c r="E30" s="36">
-        <f>149544189+27000000+304280414.5</f>
         <v>480824603.5</v>
       </c>
     </row>
@@ -4815,7 +4811,6 @@
         <v>44</v>
       </c>
       <c r="E35" s="40">
-        <f>45000000+19920000</f>
         <v>64920000</v>
       </c>
     </row>
@@ -4838,7 +4833,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="18">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1458589140.8199999</v>
       </c>
     </row>
@@ -4884,7 +4878,6 @@
         <v>10</v>
       </c>
       <c r="E42" s="37">
-        <f>185124970.06</f>
         <v>185124970.06</v>
       </c>
     </row>
@@ -4896,7 +4889,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="37">
-        <f>248335309.15+63562170.59</f>
         <v>311897479.74000001</v>
       </c>
     </row>
@@ -4908,7 +4900,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="37">
-        <f>142910698.75</f>
         <v>142910698.75</v>
       </c>
     </row>
@@ -5119,7 +5110,6 @@
         <v>12</v>
       </c>
       <c r="E64" s="37">
-        <f>1395393.8-1295893.8</f>
         <v>99500</v>
       </c>
     </row>
@@ -5269,7 +5259,6 @@
         <v>49</v>
       </c>
       <c r="E78" s="41">
-        <f>39073816.8-E79</f>
         <v>27864241.249999985</v>
       </c>
     </row>
@@ -5301,7 +5290,6 @@
         <v>49</v>
       </c>
       <c r="E81" s="37">
-        <f>4348583+4194468</f>
         <v>8543051</v>
       </c>
     </row>
@@ -5313,7 +5301,6 @@
         <v>50</v>
       </c>
       <c r="E82" s="37">
-        <f>95384759.42-E81</f>
         <v>86841708.420000002</v>
       </c>
     </row>
@@ -5427,7 +5414,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="28">
-        <f>SUM(E41:E92)</f>
         <v>940059101.80999982</v>
       </c>
     </row>
@@ -5459,7 +5445,6 @@
         <v>12</v>
       </c>
       <c r="E96" s="36">
-        <f>1111354.96+36645490.06</f>
         <v>37756845.020000003</v>
       </c>
       <c r="F96" s="10"/>
@@ -5595,7 +5580,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="37">
-        <f>35220992.06+60721299.04+10689883.8</f>
         <v>106632174.89999999</v>
       </c>
     </row>
@@ -5604,7 +5588,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="29">
-        <f>SUM(E95:E110)</f>
         <v>145643453.76999998</v>
       </c>
     </row>
@@ -5613,7 +5596,6 @@
         <v>62</v>
       </c>
       <c r="E112" s="29">
-        <f>SUM(E93,E111)</f>
         <v>1085702555.5799999</v>
       </c>
     </row>
